--- a/biology/Zoologie/Huntiglennia_williamsi/Huntiglennia_williamsi.xlsx
+++ b/biology/Zoologie/Huntiglennia_williamsi/Huntiglennia_williamsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Huntiglennia williamsi, unique représentant du genre Huntiglennia, est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Huntiglennia williamsi, unique représentant du genre Huntiglennia, est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 1,10 mm de long sur 0,75 mm et l'abdomen 1,24 mm de long et la carapace du mâle paratype mesure 1,35 mm de long sur 0,99 mm et l'abdomen 1,78 mm de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 1,10 mm de long sur 0,75 mm et l'abdomen 1,24 mm de long et la carapace du mâle paratype mesure 1,35 mm de long sur 0,99 mm et l'abdomen 1,78 mm de long.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Geoff Williams[2].
-Ce genre est nommé en l'honneur de Glenn S. Hunt[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Geoff Williams.
+Ce genre est nommé en l'honneur de Glenn S. Hunt.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Żabka &amp; Gray, 2004 : Salticidae (Arachnida: Araneae) from the Oriental, Australian and Pacific regions, XVIII. Huntiglennia -- a new genus from Australia. Annales Zoologici Warszawa, vol. 54, no 3, p. 587-590 (texte intégral).</t>
         </is>
